--- a/conditions/5_02_mod_pressure_obs2calc/sim_conds.xlsx
+++ b/conditions/5_02_mod_pressure_obs2calc/sim_conds.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfe144674\WorkSpace\PJ493_DataAssim_CatalyticReactor\codes_PJ493\05_gas_adsorption_3dim\conditions\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfe144674\WorkSpace\PJ493_DataAssim_CatalyticReactor\codes_PJ493\05_gas_adsorption_3dim\conditions\5_02_mod_pressure_obs2calc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{803D23E7-4999-4749-8BA5-51E43FCE04A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F894DAE7-A27A-4E99-884A-A5D5C43DB63A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1194,8 +1194,8 @@
   </sheetPr>
   <dimension ref="B1:T29"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView topLeftCell="J6" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1550,7 +1550,7 @@
         <v>62</v>
       </c>
       <c r="P10" s="7">
-        <v>1.72E-2</v>
+        <v>0.1</v>
       </c>
       <c r="R10" s="5" t="s">
         <v>63</v>
@@ -2083,7 +2083,7 @@
         <v>150</v>
       </c>
       <c r="D23" s="19">
-        <v>0.03</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="N23" s="5" t="s">
         <v>151</v>
@@ -2185,8 +2185,8 @@
   </sheetPr>
   <dimension ref="B1:T29"/>
   <sheetViews>
-    <sheetView topLeftCell="L8" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2541,7 +2541,7 @@
         <v>62</v>
       </c>
       <c r="P10" s="7">
-        <v>1.72E-2</v>
+        <v>0.1</v>
       </c>
       <c r="R10" s="5" t="s">
         <v>63</v>
@@ -3074,7 +3074,7 @@
         <v>150</v>
       </c>
       <c r="D23" s="19">
-        <v>0.03</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="N23" s="5" t="s">
         <v>151</v>
@@ -3176,8 +3176,8 @@
   </sheetPr>
   <dimension ref="B1:T29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L8" workbookViewId="0">
-      <selection activeCell="T16" sqref="T16"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3532,7 +3532,7 @@
         <v>62</v>
       </c>
       <c r="P10" s="7">
-        <v>1.72E-2</v>
+        <v>0.1</v>
       </c>
       <c r="R10" s="5" t="s">
         <v>63</v>
@@ -4065,7 +4065,7 @@
         <v>150</v>
       </c>
       <c r="D23" s="19">
-        <v>0.03</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="N23" s="5" t="s">
         <v>151</v>
